--- a/OnBoard/output/trust/bio/Bio_Trust_2.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F3">
@@ -524,14 +524,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L3">
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F4">
@@ -571,14 +571,14 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>66</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L4">
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F5">
@@ -618,34 +618,24 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="I5">
-        <v>66</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>SOSEM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L5">
         <v>0</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -660,12 +650,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F6">
@@ -675,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -692,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -712,7 +702,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F7">
@@ -722,19 +712,14 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="I7">
-        <v>148</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>SOSEF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L7">
@@ -744,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -764,7 +749,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F8">
@@ -774,19 +759,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="I8">
-        <v>211</v>
+        <v>-1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>SOSEF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L8">
@@ -796,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -816,7 +796,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F9">
@@ -826,19 +806,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="I9">
-        <v>219</v>
+        <v>-1</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L9">
@@ -848,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -868,7 +843,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F10">
@@ -878,19 +853,14 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>SOSEM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L10">
@@ -900,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -920,7 +890,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F11">
@@ -930,19 +900,19 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I11">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L11">
@@ -952,7 +922,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -972,7 +942,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F12">
@@ -982,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -994,7 +964,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L12">
@@ -1004,7 +974,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1024,7 +994,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F13">
@@ -1034,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="I13">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1046,7 +1016,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>SOSEF-1</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L13">
@@ -1056,7 +1026,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1076,7 +1046,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F14">
@@ -1086,19 +1056,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="I14">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L14">
@@ -1108,7 +1078,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1128,7 +1098,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F15">
@@ -1138,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="I15">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1150,7 +1120,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L15">
@@ -1160,7 +1130,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1180,7 +1150,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F16">
@@ -1190,19 +1160,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="I16">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L16">
@@ -1212,7 +1182,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1232,7 +1202,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F17">
@@ -1242,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="I17">
-        <v>475</v>
+        <v>9</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1254,17 +1224,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>SOSEF-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L17">
         <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1284,7 +1259,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F18">
@@ -1294,19 +1269,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I18">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L18">
@@ -1316,7 +1286,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1336,7 +1306,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F19">
@@ -1346,19 +1316,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="I19">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>SOSEF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L19">
@@ -1368,7 +1333,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1388,7 +1353,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F20">
@@ -1398,19 +1363,14 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I20">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>SOSEF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L20">
@@ -1420,7 +1380,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1435,12 +1395,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F21">
@@ -1450,19 +1410,14 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="I21">
-        <v>88</v>
+        <v>-1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>SOSEM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L21">
@@ -1472,7 +1427,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1487,12 +1442,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F22">
@@ -1502,19 +1457,14 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="I22">
-        <v>180</v>
+        <v>-1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L22">
@@ -1524,7 +1474,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1539,12 +1489,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F23">
@@ -1554,19 +1504,14 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I23">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>SOSEM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L23">
@@ -1576,7 +1521,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1591,12 +1536,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F24">
@@ -1606,14 +1551,19 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L24">
@@ -1623,7 +1573,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1638,12 +1588,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F25">
@@ -1653,19 +1603,19 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I25">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>SOSEM-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L25">
@@ -1675,7 +1625,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1690,12 +1640,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F26">
@@ -1705,24 +1655,34 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>265</v>
+        <v>26</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L26">
         <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1737,12 +1697,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F27">
@@ -1752,24 +1712,29 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L27">
         <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1784,12 +1749,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F28">
@@ -1799,14 +1764,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L28">
@@ -1816,7 +1781,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1831,12 +1796,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F29">
@@ -1846,14 +1811,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L29">
@@ -1863,7 +1828,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1878,12 +1843,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F30">
@@ -1893,14 +1858,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L30">
@@ -1910,7 +1875,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1925,12 +1890,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F31">
@@ -1943,16 +1908,11 @@
         <v>29</v>
       </c>
       <c r="I31">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L31">
@@ -1962,7 +1922,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1977,7 +1937,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1992,19 +1952,14 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I32">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L32">
@@ -2014,7 +1969,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2034,7 +1989,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F33">
@@ -2044,19 +1999,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I33">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L33">
@@ -2066,7 +2016,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2086,7 +2036,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F34">
@@ -2096,19 +2046,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="I34">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L34">
@@ -2118,7 +2068,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2133,12 +2083,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F35">
@@ -2151,11 +2101,16 @@
         <v>110</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>168</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L35">
@@ -2165,7 +2120,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2180,12 +2135,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F36">
@@ -2195,10 +2150,10 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="I36">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2207,7 +2162,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L36">
@@ -2217,7 +2172,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2232,12 +2187,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F37">
@@ -2247,19 +2202,19 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="I37">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L37">
@@ -2269,7 +2224,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2284,12 +2239,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F38">
@@ -2299,19 +2254,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="I38">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L38">
@@ -2321,7 +2276,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2336,12 +2291,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F39">
@@ -2351,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="I39">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2363,7 +2318,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L39">
@@ -2373,7 +2328,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2388,12 +2343,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F40">
@@ -2403,19 +2358,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="I40">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L40">
@@ -2425,7 +2380,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2445,7 +2400,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F41">
@@ -2455,10 +2410,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="I41">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2467,7 +2422,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L41">
@@ -2477,7 +2432,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2497,7 +2452,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F42">
@@ -2507,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>240</v>
+        <v>103</v>
       </c>
       <c r="I42">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2519,7 +2474,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L42">
@@ -2529,7 +2484,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2549,7 +2504,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F43">
@@ -2559,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>272</v>
+        <v>55</v>
       </c>
       <c r="I43">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2571,7 +2526,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L43">
@@ -2581,7 +2536,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2596,12 +2551,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F44">
@@ -2611,19 +2566,19 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>255</v>
+        <v>106</v>
       </c>
       <c r="I44">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L44">
@@ -2633,7 +2588,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2648,12 +2603,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F45">
@@ -2663,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="I45">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2675,7 +2630,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L45">
@@ -2685,7 +2640,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2700,12 +2655,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F46">
@@ -2715,19 +2670,19 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="I46">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L46">
@@ -2737,7 +2692,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2752,12 +2707,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F47">
@@ -2767,10 +2722,10 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c r="I47">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2779,7 +2734,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L47">
@@ -2789,7 +2744,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2804,12 +2759,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F48">
@@ -2819,19 +2774,19 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="I48">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L48">
@@ -2841,7 +2796,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2856,12 +2811,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F49">
@@ -2871,19 +2826,19 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="I49">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L49">
@@ -2893,7 +2848,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2908,12 +2863,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F50">
@@ -2923,19 +2878,19 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="I50">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L50">
@@ -2945,7 +2900,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2960,12 +2915,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F51">
@@ -2975,19 +2930,19 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>270</v>
+        <v>96</v>
       </c>
       <c r="I51">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L51">
@@ -2997,7 +2952,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3012,12 +2967,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F52">
@@ -3027,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="I52">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3039,7 +2994,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>HOLRA-4</t>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L52">
@@ -3049,7 +3004,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3064,12 +3019,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F53">
@@ -3079,10 +3034,10 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="I53">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3091,7 +3046,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L53">
@@ -3101,7 +3056,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3116,12 +3071,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F54">
@@ -3131,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>270</v>
+        <v>126</v>
       </c>
       <c r="I54">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3143,7 +3098,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L54">
@@ -3153,7 +3108,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3168,12 +3123,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F55">
@@ -3183,10 +3138,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="I55">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3195,22 +3150,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>FROSQ-2</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L55">
         <v>0</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3240,10 +3190,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="I56">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3252,22 +3202,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L56">
         <v>0</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>SS7734</t>
-        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3297,34 +3242,29 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="I57">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L57">
         <v>0</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>SS7735</t>
-        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3354,10 +3294,10 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="I58">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3366,22 +3306,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L58">
         <v>0</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>SS7736</t>
-        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3411,34 +3346,29 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I59">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L59">
         <v>0</v>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>SS7737</t>
-        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3468,34 +3398,29 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="I60">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L60">
         <v>0</v>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>SS7738</t>
-        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3525,34 +3450,29 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="I61">
-        <v>354</v>
+        <v>160</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L61">
         <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>SS7739</t>
-        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3582,34 +3502,29 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="I62">
-        <v>276</v>
+        <v>93</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L62">
         <v>0</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>SS7740</t>
-        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3624,7 +3539,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3639,10 +3554,10 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="I63">
-        <v>375</v>
+        <v>204</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3651,22 +3566,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L63">
         <v>0</v>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>SS7741</t>
-        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3681,7 +3591,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3696,10 +3606,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="I64">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3708,22 +3618,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L64">
         <v>0</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>SS7742</t>
-        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3738,7 +3643,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3753,34 +3658,29 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I65">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>HOLRM-3</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L65">
         <v>0</v>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>SS7743</t>
-        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3810,10 +3710,10 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="I66">
-        <v>371</v>
+        <v>146</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3822,22 +3722,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L66">
         <v>0</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>SS7744</t>
-        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3867,28 +3762,1088 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="I67">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>252</v>
+      </c>
+      <c r="I68">
+        <v>130</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>HOLRA-2</t>
         </is>
       </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>SS7745</t>
-        </is>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>250</v>
+      </c>
+      <c r="I69">
+        <v>153</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>221</v>
+      </c>
+      <c r="I70">
+        <v>86</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>240</v>
+      </c>
+      <c r="I71">
+        <v>143</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>235</v>
+      </c>
+      <c r="I72">
+        <v>105</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>282</v>
+      </c>
+      <c r="I73">
+        <v>226</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>259</v>
+      </c>
+      <c r="I74">
+        <v>146</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>251</v>
+      </c>
+      <c r="I75">
+        <v>170</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>270</v>
+      </c>
+      <c r="I76">
+        <v>191</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
+        </is>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>287</v>
+      </c>
+      <c r="I77">
+        <v>242</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>255</v>
+      </c>
+      <c r="I78">
+        <v>175</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>321</v>
+      </c>
+      <c r="I79">
+        <v>391</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>SS8256</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>219</v>
+      </c>
+      <c r="I80">
+        <v>85</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
+        </is>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>SS8257</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>306</v>
+      </c>
+      <c r="I81">
+        <v>293</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>SS8258</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>203</v>
+      </c>
+      <c r="I82">
+        <v>73</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
+        </is>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>SS8259</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>342</v>
+      </c>
+      <c r="I83">
+        <v>458</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>SS8260</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>SOLEAEG</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>165</v>
+      </c>
+      <c r="I84">
+        <v>41</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
+        </is>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>SA006</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>310</v>
+      </c>
+      <c r="I85">
+        <v>294</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>SS8261</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>43</v>
+      </c>
+      <c r="I86">
+        <v>15</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>30</v>
+      </c>
+      <c r="I87">
+        <v>17</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L87">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
